--- a/Gudeline 36 data.xlsx
+++ b/Gudeline 36 data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Projects\PsychroCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5FE256-4116-4FAD-A4D7-6053CE08BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F7863-6710-442E-843F-4334078D1F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Setpoints_Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Points_Lists" sheetId="2" r:id="rId2"/>
+    <sheet name="Sequences" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="153">
   <si>
     <t>Design Requirements Table</t>
   </si>
@@ -198,9 +199,6 @@
     <t>Zone Tstat</t>
   </si>
   <si>
-    <t>DCV</t>
-  </si>
-  <si>
     <t>Window DCV</t>
   </si>
   <si>
@@ -427,6 +425,99 @@
   </si>
   <si>
     <t>MULTIZONE AHU</t>
+  </si>
+  <si>
+    <t>SINGLE ZONE AHU</t>
+  </si>
+  <si>
+    <t>Outdoor/return air damper</t>
+  </si>
+  <si>
+    <t>Modulating actuators</t>
+  </si>
+  <si>
+    <t>Variable-capacity compressor</t>
+  </si>
+  <si>
+    <t>Room CO2 sensor</t>
+  </si>
+  <si>
+    <t>Occupancy DCV</t>
+  </si>
+  <si>
+    <t>Zone CO2 level</t>
+  </si>
+  <si>
+    <t>Preheat Coil</t>
+  </si>
+  <si>
+    <t>Reheat Coil</t>
+  </si>
+  <si>
+    <t>Reheat Coil Electric</t>
+  </si>
+  <si>
+    <t>Preheat Coil Electric</t>
+  </si>
+  <si>
+    <t>Hydronic</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>Outdoor Airflow</t>
+  </si>
+  <si>
+    <t>Outdoor AFM</t>
+  </si>
+  <si>
+    <t>Relief damper</t>
+  </si>
+  <si>
+    <t>Relief-damper open/close</t>
+  </si>
+  <si>
+    <t>Current VFD Status</t>
+  </si>
+  <si>
+    <t>Exhaust air damper</t>
+  </si>
+  <si>
+    <t>Return Fan Discharge Static Pressure</t>
+  </si>
+  <si>
+    <t>Differential pressure transducer at fan</t>
+  </si>
+  <si>
+    <t>Exhaust Air Damper</t>
+  </si>
+  <si>
+    <t>Building Static Pressure</t>
+  </si>
+  <si>
+    <t>Differential pressure transducer between representative space and outdoors</t>
+  </si>
+  <si>
+    <t>CONSTANT SPEED EXHAUST FAN</t>
+  </si>
+  <si>
+    <t>Exhaust Fan Start/Stop</t>
+  </si>
+  <si>
+    <t>Connect to motor starter</t>
+  </si>
+  <si>
+    <t>Exhaust Fan Status</t>
+  </si>
+  <si>
+    <t>Current switch</t>
+  </si>
+  <si>
+    <t>Zone Temperature</t>
+  </si>
+  <si>
+    <t>BY TEMP</t>
   </si>
 </sst>
 </file>
@@ -484,16 +575,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,26 +692,61 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:D17" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required"/>
-    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device"/>
-    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A20:D59" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D59">
+    <sortCondition ref="A20:A59"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required"/>
-    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device"/>
-    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}" name="Singlezone_Points" displayName="Singlezone_Points" ref="A62:D98" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A62:D98" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:D98">
+    <sortCondition ref="A62:A98"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5E964800-09EE-4411-9179-5126D316AF9F}" name="Required" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1452D3F0-E1CE-4555-AC4A-F0EA546235D1}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1794FB9B-87CC-4796-B633-86087FEB1F2D}" name="Device" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{569B0629-8088-4E40-90F1-2564CBB77CDC}" name="Type" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}" name="exhaust_fan_points" displayName="exhaust_fan_points" ref="A101:D104" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+  <autoFilter ref="A101:D104" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{18FB9AC0-401D-4730-B7AB-63229E842A4E}" name="Required" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{947677B8-1AD4-4523-A6FE-46A11B740B85}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6DDD2D7A-A6F8-402C-95CC-9B13B3B3B9A2}" name="Device" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1A9205DF-BF15-447F-9516-7E6E243993B9}" name="Type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +1018,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,830 +1151,1439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9108B6B2-41E5-475A-AF17-A919F48E3F27}">
-  <dimension ref="A1:D59"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="113" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D30" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B70" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D87" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D94" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A100:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29F9F55-D29D-4BAC-AD64-D314BD34B2FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gudeline 36 data.xlsx
+++ b/Gudeline 36 data.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Projects\PsychroCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBB96C7-215A-4EAE-B9A9-C355550D6A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB99F3F-A889-4C9F-99D5-0A179141360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setpoints_Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Points_Lists" sheetId="2" r:id="rId2"/>
     <sheet name="Sequences" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Ref38822284" localSheetId="2">Sequences!$A$121</definedName>
+    <definedName name="_Ref440033356" localSheetId="2">Sequences!$B$14</definedName>
+    <definedName name="_Ref73449741" localSheetId="2">Sequences!$A$25</definedName>
+    <definedName name="_Ref73449755" localSheetId="2">Sequences!$A$24</definedName>
+    <definedName name="_Ref73450375" localSheetId="2">Sequences!$A$35</definedName>
+    <definedName name="_Ref73450525" localSheetId="2">Sequences!$A$46</definedName>
+    <definedName name="_Ref73451565" localSheetId="2">Sequences!$A$90</definedName>
+    <definedName name="_Ref73451586" localSheetId="2">Sequences!$A$286</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="171">
   <si>
     <t>Design Requirements Table</t>
   </si>
@@ -529,6 +539,64 @@
   </si>
   <si>
     <t>VAV Terminal Unit</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Supply Air Temperature Control</t>
+  </si>
+  <si>
+    <t>Minimum Outdoor Airflow Setpoints</t>
+  </si>
+  <si>
+    <t>Minimum OA Saperate Damper and airflow tracking</t>
+  </si>
+  <si>
+    <t>Minimum OA common Damper and airflow tracking</t>
+  </si>
+  <si>
+    <t>Control of Actuated Relief Dampers without Fans</t>
+  </si>
+  <si>
+    <t>OA Damper</t>
+  </si>
+  <si>
+    <t>Relief fan</t>
+  </si>
+  <si>
+    <t>Relief fan control</t>
+  </si>
+  <si>
+    <t>Building pressure Control</t>
+  </si>
+  <si>
+    <t>Airflow tracking Control</t>
+  </si>
+  <si>
+    <t>Freeze Protection</t>
+  </si>
+  <si>
+    <t>Alarms</t>
+  </si>
+  <si>
+    <t>Automatic Fault Detection and Diagnostics</t>
+  </si>
+  <si>
+    <t>Testing or Commissioning Overrides</t>
+  </si>
+  <si>
+    <t>Plant Requests</t>
+  </si>
+  <si>
+    <t>Supply Fan Control</t>
+  </si>
+  <si>
+    <t>If the supply air temperature drops below 4.4°C (40°F) for 5 minutes, send two (or more, as required to ensure that heating plant is active) heating hot-water plant requests, override the outdoor air damper to the minimum position, and modulate the heating coil to maintain a supply air temperature of at least 6°C (42°F). Disable this function when supply air temperature rises above 7°C (45°F) for 5 minutes.
+If the supply air temperature drops below 3.3°C (38°F) for 5 minutes, fully close both the economizer damper and the minimum outdoor air damper for 1 hour and set a Level 3 alarm noting that minimum ventilation was interrupted. After 1 hour, the unit shall resume minimum outdoor air ventilation and enter the previous stage of freeze protection.
+If it is warm enough that the SAT rises above 7°C (45°F) with minimum ventilation, the unit will remain in Stage 1 freeze protection for 5 minutes then resume normal operation.
+Upon signal from the freeze-stat (if installed), or if supply air temperature drops below 3.3°C (38°F) for 15 minutes or below 1°C (34°F) for 5 minutes, shut down supply and return/relief fan(s), close outdoor air damper, open the cooling-coil valve to 100%, and energize the CHW pump system. Also send two (or more, as required to ensure that heating plant is active) heating hot-water plant requests, modulate the heating coil to maintain the higher of the supply air temperature or the mixed air temperature at 27°C (80°F), and set a Level 2 alarm indicating the unit is shut down by freeze protection.
+If a freeze-protection shutdown is triggered by a low air temperature sensor reading, it shall remain in effect until it is reset by a software switch from the operator’s workstation. (If a freeze-stat with a physical reset switch is used instead, there shall be no software reset switch.)</t>
   </si>
 </sst>
 </file>
@@ -586,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,11 +665,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -702,61 +791,73 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A2:D17" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A20:D59" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D59">
     <sortCondition ref="A20:A59"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}" name="Singlezone_Points" displayName="Singlezone_Points" ref="A62:D98" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}" name="Singlezone_Points" displayName="Singlezone_Points" ref="A62:D98" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A62:D98" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:D98">
     <sortCondition ref="A62:A98"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5E964800-09EE-4411-9179-5126D316AF9F}" name="Required" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1452D3F0-E1CE-4555-AC4A-F0EA546235D1}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{1794FB9B-87CC-4796-B633-86087FEB1F2D}" name="Device" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{569B0629-8088-4E40-90F1-2564CBB77CDC}" name="Type" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{5E964800-09EE-4411-9179-5126D316AF9F}" name="Required" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1452D3F0-E1CE-4555-AC4A-F0EA546235D1}" name="Description" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1794FB9B-87CC-4796-B633-86087FEB1F2D}" name="Device" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{569B0629-8088-4E40-90F1-2564CBB77CDC}" name="Type" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}" name="exhaust_fan_points" displayName="exhaust_fan_points" ref="A101:D104" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}" name="exhaust_fan_points" displayName="exhaust_fan_points" ref="A101:D104" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A101:D104" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18FB9AC0-401D-4730-B7AB-63229E842A4E}" name="Required" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{947677B8-1AD4-4523-A6FE-46A11B740B85}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6DDD2D7A-A6F8-402C-95CC-9B13B3B3B9A2}" name="Device" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1A9205DF-BF15-447F-9516-7E6E243993B9}" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{18FB9AC0-401D-4730-B7AB-63229E842A4E}" name="Required" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{947677B8-1AD4-4523-A6FE-46A11B740B85}" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6DDD2D7A-A6F8-402C-95CC-9B13B3B3B9A2}" name="Device" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1A9205DF-BF15-447F-9516-7E6E243993B9}" name="Type" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}" name="Table6" displayName="Table6" ref="A2:C16" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A2:C16" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8AE4E238-82D6-4B78-B82A-3C0A4C6B2566}" name="Required" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{88D4DF17-A024-4DE7-83C0-C7AC4C1C7FEF}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{16EF8E91-9739-45BA-BC45-CC656357BCAD}" name="Sequence" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1170,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="113" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A22" zoomScale="113" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2593,12 +2694,170 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29F9F55-D29D-4BAC-AD64-D314BD34B2FA}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="160.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Gudeline 36 data.xlsx
+++ b/Gudeline 36 data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Projects\PsychroCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB99F3F-A889-4C9F-99D5-0A179141360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D720B75A-CD45-4332-94EB-2E6F82914F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="Setpoints_Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Points_Lists" sheetId="2" r:id="rId2"/>
     <sheet name="Sequences" sheetId="3" r:id="rId3"/>
+    <sheet name="Tables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref38822284" localSheetId="2">Sequences!$A$121</definedName>
-    <definedName name="_Ref440033356" localSheetId="2">Sequences!$B$14</definedName>
+    <definedName name="_Ref440033356" localSheetId="2">Sequences!$C$14</definedName>
     <definedName name="_Ref73449741" localSheetId="2">Sequences!$A$25</definedName>
     <definedName name="_Ref73449755" localSheetId="2">Sequences!$A$24</definedName>
     <definedName name="_Ref73450375" localSheetId="2">Sequences!$A$35</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="215">
   <si>
     <t>Design Requirements Table</t>
   </si>
@@ -597,6 +598,151 @@
 If it is warm enough that the SAT rises above 7°C (45°F) with minimum ventilation, the unit will remain in Stage 1 freeze protection for 5 minutes then resume normal operation.
 Upon signal from the freeze-stat (if installed), or if supply air temperature drops below 3.3°C (38°F) for 15 minutes or below 1°C (34°F) for 5 minutes, shut down supply and return/relief fan(s), close outdoor air damper, open the cooling-coil valve to 100%, and energize the CHW pump system. Also send two (or more, as required to ensure that heating plant is active) heating hot-water plant requests, modulate the heating coil to maintain the higher of the supply air temperature or the mixed air temperature at 27°C (80°F), and set a Level 2 alarm indicating the unit is shut down by freeze protection.
 If a freeze-protection shutdown is triggered by a low air temperature sensor reading, it shall remain in effect until it is reset by a software switch from the operator’s workstation. (If a freeze-stat with a physical reset switch is used instead, there shall be no software reset switch.)</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Supply fan</t>
+  </si>
+  <si>
+    <t>SP0</t>
+  </si>
+  <si>
+    <t>SPmin</t>
+  </si>
+  <si>
+    <t>SPmax</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Zone static pressure reset requests</t>
+  </si>
+  <si>
+    <t>SPtrim</t>
+  </si>
+  <si>
+    <t>SPres</t>
+  </si>
+  <si>
+    <t>SPres-max</t>
+  </si>
+  <si>
+    <t>Trim_and_Respond_Table</t>
+  </si>
+  <si>
+    <t>Supply Fan Start/Stop
+a.	Supply fan shall run when system is in the Cooldown Mode, Setup Mode, or Occupied Mode.
+b.	If there are any VAV-reheat boxes on perimeter zones, supply fan shall also run when system is in Setback Mode or Warmup Mode (i.e., all modes except unoccupied).
+c.	Totalize current airflow rate from VAV boxes to a software point Vps. 
+5.16.1.2.	Static Pressure Set-Point Reset
+a.	Static pressure setpoint. Setpoint shall be reset using T&amp;R logic (see Section 5.1.14 from ASHRAE guideline 36) using the parameters shown in trim and respond table. 
+Static Pressure Control
+a.	Supply fan speed is controlled to maintain DSP at setpoint when the fan is proven ON. Where the Zone Groups served by the system are small, provide multiple sets of gains that are used in the control loop as a function of a load indicator (such as supply-fan airflow rate, the area of the Zone Groups that are occupied, etc.).</t>
+  </si>
+  <si>
+    <t>Static Pressure</t>
+  </si>
+  <si>
+    <t>Supply Air</t>
+  </si>
+  <si>
+    <t>Min_ClgSAT</t>
+  </si>
+  <si>
+    <t>Max_ClgSAT</t>
+  </si>
+  <si>
+    <t>Zone cooling SAT requests</t>
+  </si>
+  <si>
+    <t>Associated device (e.g., fan, pump)</t>
+  </si>
+  <si>
+    <t>Initial setpoint</t>
+  </si>
+  <si>
+    <t>Minimum setpoint</t>
+  </si>
+  <si>
+    <t>Maximum setpoint</t>
+  </si>
+  <si>
+    <t>Delay timer</t>
+  </si>
+  <si>
+    <t>Time step</t>
+  </si>
+  <si>
+    <t>Number of ignored requests</t>
+  </si>
+  <si>
+    <t>Number of requests from zones/systems</t>
+  </si>
+  <si>
+    <t>Trim amount</t>
+  </si>
+  <si>
+    <t>Respond amount (must be opposite in sign to SPtrim)</t>
+  </si>
+  <si>
+    <t>Maximum response per time interval (must be same sign as SPres)</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>–0.05 in. of water</t>
+  </si>
+  <si>
+    <t>+0.06 in. of water</t>
+  </si>
+  <si>
+    <t>+0.13 in. of water</t>
+  </si>
+  <si>
+    <t>0.1 in. of water</t>
+  </si>
+  <si>
+    <t>Max_DSP (See Schedules for max DP)</t>
+  </si>
+  <si>
+    <t>0.5 in. of water</t>
+  </si>
+  <si>
+    <t>+0.2°F</t>
+  </si>
+  <si>
+    <t>–0.3°F</t>
+  </si>
+  <si>
+    <t>–1.0°F</t>
+  </si>
+  <si>
+    <t>Control loop is enabled when the supply air fan is proven ON, and disabled and output set to deadband (no heating, minimum economizer) otherwise.
+Supply Air Temperature Setpoint
+Refer to drawings for Min_ClgSAT, Max_ClgSAT, OAT_Min, and OAT_Max setpoints
+b.	During Occupied Mode and Setup Mode, setpoint shall be reset from Min_ClgSAT when the outdoor air temperature is OAT_Max and above, proportionally up to T-max when the outdoor air temperature is OAT_Min and below.
+1.	T-max shall be reset using T&amp;R logic (see Section 5.1.14) between Min_ClgSAT and Max_ClgSAT. The parameters shown in the trim and respond variables table are suggested as a starting place, but they will require adjustment during the commissioning/tuning phase.
+c.	During Cooldown Mode, setpoint shall be Min_ClgSAT.
+d.	During Warmup Mode and Setback Mode, setpoint shall be 35°C (95°F).</t>
   </si>
 </sst>
 </file>
@@ -654,15 +800,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -674,19 +817,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -791,73 +962,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}" name="VAV_and_Reheat_Points" displayName="VAV_and_Reheat_Points" ref="A2:D17" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A2:D17" xr:uid="{25BABD24-5304-4E68-BF2F-55DFFD748B4E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D17">
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{77887A4A-E9CC-404B-A552-7B311ED40798}" name="Required" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{6C7138C9-92BE-4470-AE05-F23E19544C15}" name="Description" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{D5FE7A64-891D-4A48-99A0-FB90811D66E5}" name="Device" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{A1236DED-B651-4A51-BF34-BC1938342E10}" name="Type" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}" name="Multizone_VAV_Points" displayName="Multizone_VAV_Points" ref="A20:D59" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A20:D59" xr:uid="{ABC6E340-E05C-432A-BC5A-6258665D11DE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:D59">
     <sortCondition ref="A20:A59"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{EDCD7BF4-22AA-445F-B4DD-07C70D201192}" name="Required" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{CE0ECC36-79C9-41C5-BCF0-6672B0795B49}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A767BE05-76CF-4EDC-ACAE-D2113E87CAAE}" name="Device" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{0FE8A576-664F-4DD5-AB06-3B0FFAE4C8D6}" name="Type" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}" name="Singlezone_Points" displayName="Singlezone_Points" ref="A62:D98" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}" name="Singlezone_Points" displayName="Singlezone_Points" ref="A62:D98" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A62:D98" xr:uid="{A57DA52F-5751-4A35-908D-A7DB01471517}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:D98">
     <sortCondition ref="A62:A98"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5E964800-09EE-4411-9179-5126D316AF9F}" name="Required" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1452D3F0-E1CE-4555-AC4A-F0EA546235D1}" name="Description" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1794FB9B-87CC-4796-B633-86087FEB1F2D}" name="Device" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{569B0629-8088-4E40-90F1-2564CBB77CDC}" name="Type" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5E964800-09EE-4411-9179-5126D316AF9F}" name="Required" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{1452D3F0-E1CE-4555-AC4A-F0EA546235D1}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{1794FB9B-87CC-4796-B633-86087FEB1F2D}" name="Device" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{569B0629-8088-4E40-90F1-2564CBB77CDC}" name="Type" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}" name="exhaust_fan_points" displayName="exhaust_fan_points" ref="A101:D104" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}" name="exhaust_fan_points" displayName="exhaust_fan_points" ref="A101:D104" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A101:D104" xr:uid="{0941199B-66CB-4A35-92B6-F3297A9F873C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18FB9AC0-401D-4730-B7AB-63229E842A4E}" name="Required" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{947677B8-1AD4-4523-A6FE-46A11B740B85}" name="Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6DDD2D7A-A6F8-402C-95CC-9B13B3B3B9A2}" name="Device" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1A9205DF-BF15-447F-9516-7E6E243993B9}" name="Type" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{18FB9AC0-401D-4730-B7AB-63229E842A4E}" name="Required" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{947677B8-1AD4-4523-A6FE-46A11B740B85}" name="Description" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{6DDD2D7A-A6F8-402C-95CC-9B13B3B3B9A2}" name="Device" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1A9205DF-BF15-447F-9516-7E6E243993B9}" name="Type" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}" name="Table6" displayName="Table6" ref="A2:C16" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A2:C16" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8AE4E238-82D6-4B78-B82A-3C0A4C6B2566}" name="Required" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{88D4DF17-A024-4DE7-83C0-C7AC4C1C7FEF}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{16EF8E91-9739-45BA-BC45-CC656357BCAD}" name="Sequence" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}" name="Table6" displayName="Table6" ref="A2:D16" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A2:D16" xr:uid="{627E4CE9-6691-4AFC-859C-E7C0D746D35A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8AE4E238-82D6-4B78-B82A-3C0A4C6B2566}" name="Required" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{83CD2228-4A96-43E1-AE5A-FE88B5C01E71}" name="Table" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{88D4DF17-A024-4DE7-83C0-C7AC4C1C7FEF}" name="Description" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{16EF8E91-9739-45BA-BC45-CC656357BCAD}" name="Sequence" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1AC01491-0428-4E65-BEB7-9A3AFE753543}" name="Trim_and_Respond_Table" displayName="Trim_and_Respond_Table" ref="A3:D14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A3:D14" xr:uid="{1AC01491-0428-4E65-BEB7-9A3AFE753543}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{475F92BB-2C46-4AA0-8A45-A52B3875DA25}" name="Variable" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0B1D9E2C-B5E8-4405-89F2-EAB6C7034295}" name="Definition" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9F44D363-2F18-45A8-8A15-315037E5012F}" name="Static Pressure" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5CE867A0-EF04-4E64-9746-7BD8F7A77745}" name="Supply Air" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1284,12 +1469,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1516,12 +1701,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -2084,12 +2269,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -2610,12 +2795,12 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -2694,165 +2879,190 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29F9F55-D29D-4BAC-AD64-D314BD34B2FA}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="160.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="160.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2860,4 +3070,210 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EFAAB5-FA41-4AD2-8C78-B514418C40F3}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>